--- a/7_XV-seq/FilteredCells_files.xlsx
+++ b/7_XV-seq/FilteredCells_files.xlsx
@@ -1,26 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vangalen/Dropbox (Partners HealthCare)/Projects/Single-cell_BPDCN/AnalysisPeter/Github/7_XV-seq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95AB84B9-0A92-3F4D-BFE1-C3B012C54323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E00010C-64A5-4D4E-9604-45E274FDBD52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="1240" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FilteredCells_files" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="128">
   <si>
     <t>Sample</t>
   </si>
@@ -401,6 +413,9 @@
   </si>
   <si>
     <t>NFIC.chr19:3462800:G/A</t>
+  </si>
+  <si>
+    <t>Genotyping efficiency (%)</t>
   </si>
 </sst>
 </file>
@@ -549,7 +564,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -744,6 +759,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -917,7 +938,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -929,6 +950,18 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1305,11 +1338,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="A55" sqref="A51:F55"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1318,11 +1351,12 @@
     <col min="2" max="2" width="21.1640625" customWidth="1"/>
     <col min="3" max="3" width="61.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.33203125" customWidth="1"/>
+    <col min="5" max="5" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1336,13 +1370,16 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>53</v>
       </c>
@@ -1355,12 +1392,15 @@
       <c r="D2" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="18">
+        <v>1.08131487889273</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="8"/>
-    </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>53</v>
       </c>
@@ -1373,12 +1413,15 @@
       <c r="D3" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="18">
+        <v>0.25951557093425598</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>53</v>
       </c>
@@ -1391,10 +1434,13 @@
       <c r="D4" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="E4" s="8"/>
+      <c r="E4" s="11">
+        <v>3.02768166089965</v>
+      </c>
       <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>53</v>
       </c>
@@ -1407,10 +1453,13 @@
       <c r="D5" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="8"/>
+      <c r="E5" s="11">
+        <v>6.0986159169550103</v>
+      </c>
       <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>53</v>
       </c>
@@ -1423,10 +1472,13 @@
       <c r="D6" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="12">
+        <v>4.75778546712802</v>
+      </c>
       <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>80</v>
       </c>
@@ -1439,12 +1491,15 @@
       <c r="D7" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="18">
+        <v>1.06414425066509</v>
+      </c>
+      <c r="F7" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>80</v>
       </c>
@@ -1457,12 +1512,15 @@
       <c r="D8" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="18">
+        <v>0.28574243767858898</v>
+      </c>
+      <c r="F8" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>80</v>
       </c>
@@ -1475,10 +1533,13 @@
       <c r="D9" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="E9" s="8"/>
+      <c r="E9" s="11">
+        <v>2.4830032515518701</v>
+      </c>
       <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>80</v>
       </c>
@@ -1491,10 +1552,13 @@
       <c r="D10" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E10" s="8"/>
+      <c r="E10" s="11">
+        <v>6.6016356291260196</v>
+      </c>
       <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>80</v>
       </c>
@@ -1507,10 +1571,13 @@
       <c r="D11" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="E11" s="9"/>
+      <c r="E11" s="12">
+        <v>4.4930535028081504</v>
+      </c>
       <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>76</v>
       </c>
@@ -1523,12 +1590,15 @@
       <c r="D12" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="18">
+        <v>4.0398740818467997</v>
+      </c>
+      <c r="F12" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>76</v>
       </c>
@@ -1541,12 +1611,15 @@
       <c r="D13" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="18">
+        <v>5.1416579223504701</v>
+      </c>
+      <c r="F13" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>76</v>
       </c>
@@ -1559,12 +1632,15 @@
       <c r="D14" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="18">
+        <v>6.37460650577124</v>
+      </c>
+      <c r="F14" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>76</v>
       </c>
@@ -1577,10 +1653,13 @@
       <c r="D15" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="E15" s="8"/>
+      <c r="E15" s="11">
+        <v>0.34102833158446999</v>
+      </c>
       <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>76</v>
       </c>
@@ -1593,10 +1672,13 @@
       <c r="D16" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="E16" s="9"/>
+      <c r="E16" s="12">
+        <v>3.0954879328436502</v>
+      </c>
       <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>54</v>
       </c>
@@ -1609,12 +1691,15 @@
       <c r="D17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="20">
+        <v>9.3719428683232202</v>
+      </c>
+      <c r="F17" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>54</v>
       </c>
@@ -1627,12 +1712,15 @@
       <c r="D18" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="20">
+        <v>3.5805126198395598</v>
+      </c>
+      <c r="F18" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>54</v>
       </c>
@@ -1645,12 +1733,15 @@
       <c r="D19" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="20">
+        <v>1.46742320485227</v>
+      </c>
+      <c r="F19" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>54</v>
       </c>
@@ -1663,12 +1754,15 @@
       <c r="D20" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="14">
+        <v>5.4196830365877497</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>55</v>
       </c>
@@ -1681,12 +1775,15 @@
       <c r="D21" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="21">
+        <v>1.22602333399248</v>
+      </c>
+      <c r="F21" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>55</v>
       </c>
@@ -1699,12 +1796,15 @@
       <c r="D22" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="21">
+        <v>1.0579394898160901</v>
+      </c>
+      <c r="F22" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>55</v>
       </c>
@@ -1717,12 +1817,15 @@
       <c r="D23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="21">
+        <v>1.16669962428317</v>
+      </c>
+      <c r="F23" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>55</v>
       </c>
@@ -1735,12 +1838,15 @@
       <c r="D24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="21">
+        <v>1.8884714257464901</v>
+      </c>
+      <c r="F24" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>55</v>
       </c>
@@ -1753,12 +1859,15 @@
       <c r="D25" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="15">
+        <v>27.664623294443299</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>55</v>
       </c>
@@ -1771,12 +1880,15 @@
       <c r="D26" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="21">
+        <v>0.41526596796519599</v>
+      </c>
+      <c r="F26" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>55</v>
       </c>
@@ -1789,12 +1901,15 @@
       <c r="D27" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="15">
+        <v>9.8081866719398807</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>55</v>
       </c>
@@ -1807,12 +1922,15 @@
       <c r="D28" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="15">
+        <v>0.247182123788807</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>55</v>
       </c>
@@ -1825,12 +1943,15 @@
       <c r="D29" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="15">
+        <v>6.1795530947201902</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>55</v>
       </c>
@@ -1843,12 +1964,15 @@
       <c r="D30" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="15">
+        <v>1.2161360490409301</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>55</v>
       </c>
@@ -1861,12 +1985,15 @@
       <c r="D31" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="15">
+        <v>13.140201700613</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>55</v>
       </c>
@@ -1879,12 +2006,13 @@
       <c r="D32" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="15"/>
+      <c r="F32" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>55</v>
       </c>
@@ -1897,12 +2025,13 @@
       <c r="D33" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="15"/>
+      <c r="F33" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="4"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>55</v>
       </c>
@@ -1915,12 +2044,13 @@
       <c r="D34" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="13"/>
+      <c r="F34" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F34" s="6"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>55</v>
       </c>
@@ -1933,12 +2063,13 @@
       <c r="D35" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="13"/>
+      <c r="F35" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F35" s="6"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>55</v>
       </c>
@@ -1951,14 +2082,17 @@
       <c r="D36" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="13">
+        <v>34.121020367806999</v>
+      </c>
+      <c r="F36" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="G36" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>55</v>
       </c>
@@ -1971,10 +2105,13 @@
       <c r="D37" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E37" s="7"/>
+      <c r="E37" s="16">
+        <v>98.892624085426107</v>
+      </c>
       <c r="F37" s="7"/>
-    </row>
-    <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>55</v>
       </c>
@@ -1987,10 +2124,13 @@
       <c r="D38" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E38" s="7"/>
+      <c r="E38" s="16">
+        <v>4.8249950563575199</v>
+      </c>
       <c r="F38" s="7"/>
-    </row>
-    <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G38" s="7"/>
+    </row>
+    <row r="39" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
         <v>55</v>
       </c>
@@ -2003,10 +2143,13 @@
       <c r="D39" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="E39" s="10"/>
+      <c r="E39" s="17">
+        <v>0.78109551117263198</v>
+      </c>
       <c r="F39" s="10"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39" s="10"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>32</v>
       </c>
@@ -2019,12 +2162,15 @@
       <c r="D40" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="20">
+        <v>2.6613007918992602</v>
+      </c>
+      <c r="F40" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F40" s="6"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G40" s="6"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>32</v>
       </c>
@@ -2037,12 +2183,15 @@
       <c r="D41" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="20">
+        <v>3.2584707256912799</v>
+      </c>
+      <c r="F41" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F41" s="6"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G41" s="6"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>32</v>
       </c>
@@ -2055,12 +2204,15 @@
       <c r="D42" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="20">
+        <v>3.0377774892898799</v>
+      </c>
+      <c r="F42" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F42" s="6"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G42" s="6"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>32</v>
       </c>
@@ -2073,12 +2225,15 @@
       <c r="D43" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="20">
+        <v>5.0889263923146801</v>
+      </c>
+      <c r="F43" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F43" s="6"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G43" s="6"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>32</v>
       </c>
@@ -2091,12 +2246,15 @@
       <c r="D44" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E44" s="13">
+        <v>29.365182396468899</v>
+      </c>
+      <c r="F44" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F44" s="6"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G44" s="6"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>32</v>
       </c>
@@ -2109,12 +2267,15 @@
       <c r="D45" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E45" s="20">
+        <v>0.85680903544073705</v>
+      </c>
+      <c r="F45" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F45" s="6"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G45" s="6"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>32</v>
       </c>
@@ -2127,12 +2288,15 @@
       <c r="D46" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="13">
+        <v>10.2427625600415</v>
+      </c>
+      <c r="F46" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F46" s="6"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G46" s="6"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>32</v>
       </c>
@@ -2145,12 +2309,15 @@
       <c r="D47" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="E47" s="13">
+        <v>0.246657146566272</v>
+      </c>
+      <c r="F47" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F47" s="6"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G47" s="6"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>32</v>
       </c>
@@ -2163,12 +2330,15 @@
       <c r="D48" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="E48" s="13">
+        <v>19.719589770219301</v>
+      </c>
+      <c r="F48" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F48" s="6"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G48" s="6"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>32</v>
       </c>
@@ -2181,12 +2351,15 @@
       <c r="D49" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="E49" s="13">
+        <v>2.73919252239387</v>
+      </c>
+      <c r="F49" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F49" s="6"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G49" s="6"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>32</v>
       </c>
@@ -2199,14 +2372,17 @@
       <c r="D50" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="E50" s="13">
+        <v>26.2754770868492</v>
+      </c>
+      <c r="F50" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F50" s="6" t="s">
+      <c r="G50" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>32</v>
       </c>
@@ -2219,14 +2395,15 @@
       <c r="D51" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="E51" s="13"/>
+      <c r="F51" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F51" s="6" t="s">
+      <c r="G51" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>32</v>
       </c>
@@ -2239,14 +2416,15 @@
       <c r="D52" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="E52" s="13"/>
+      <c r="F52" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F52" s="6" t="s">
+      <c r="G52" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>32</v>
       </c>
@@ -2259,14 +2437,15 @@
       <c r="D53" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E53" s="13"/>
+      <c r="F53" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F53" s="6" t="s">
+      <c r="G53" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>32</v>
       </c>
@@ -2279,14 +2458,15 @@
       <c r="D54" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="E54" s="13"/>
+      <c r="F54" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F54" s="6" t="s">
+      <c r="G54" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>32</v>
       </c>
@@ -2299,14 +2479,17 @@
       <c r="D55" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E55" s="6" t="s">
+      <c r="E55" s="13">
+        <v>37.310138906919299</v>
+      </c>
+      <c r="F55" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F55" s="6" t="s">
+      <c r="G55" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
         <v>78</v>
       </c>
@@ -2319,12 +2502,15 @@
       <c r="D56" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="E56" s="20">
+        <v>0.41411042944785198</v>
+      </c>
+      <c r="F56" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F56" s="7"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G56" s="7"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
         <v>78</v>
       </c>
@@ -2337,12 +2523,15 @@
       <c r="D57" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E57" s="7" t="s">
+      <c r="E57" s="20">
+        <v>0.107361963190184</v>
+      </c>
+      <c r="F57" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F57" s="7"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G57" s="7"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
         <v>78</v>
       </c>
@@ -2355,10 +2544,13 @@
       <c r="D58" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="E58" s="7"/>
+      <c r="E58" s="16">
+        <v>7.6687116564417096E-2</v>
+      </c>
       <c r="F58" s="7"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G58" s="7"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
         <v>78</v>
       </c>
@@ -2371,10 +2563,13 @@
       <c r="D59" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="E59" s="7"/>
+      <c r="E59" s="16">
+        <v>1.5644171779141101</v>
+      </c>
       <c r="F59" s="7"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G59" s="7"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
         <v>78</v>
       </c>
@@ -2387,10 +2582,13 @@
       <c r="D60" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="E60" s="10"/>
+      <c r="E60" s="17">
+        <v>2.8220858895705501</v>
+      </c>
       <c r="F60" s="10"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G60" s="10"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
         <v>79</v>
       </c>
@@ -2403,12 +2601,15 @@
       <c r="D61" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="E61" s="20">
+        <v>23.019943019943</v>
+      </c>
+      <c r="F61" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F61" s="7"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G61" s="7"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
         <v>79</v>
       </c>
@@ -2421,12 +2622,15 @@
       <c r="D62" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E62" s="20">
+        <v>3.4947768281101599</v>
+      </c>
+      <c r="F62" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F62" s="7"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G62" s="7"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
         <v>79</v>
       </c>
@@ -2439,10 +2643,13 @@
       <c r="D63" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="E63" s="7"/>
+      <c r="E63" s="16">
+        <v>11.035137701804301</v>
+      </c>
       <c r="F63" s="7"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G63" s="7"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
         <v>79</v>
       </c>
@@ -2455,10 +2662,13 @@
       <c r="D64" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="E64" s="7"/>
+      <c r="E64" s="16">
+        <v>8.5470085470085397</v>
+      </c>
       <c r="F64" s="7"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G64" s="7"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
         <v>79</v>
       </c>
@@ -2471,8 +2681,11 @@
       <c r="D65" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="E65" s="10"/>
+      <c r="E65" s="17">
+        <v>8.4900284900284895</v>
+      </c>
       <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
